--- a/ExcelData/Portfolio.xlsx
+++ b/ExcelData/Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\eclipse-workspace\TestProjet\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199967B-509E-44F9-BD8A-E2F22B228484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390953F4-A136-47E6-9B81-098350438E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>as on 08th December, 2023)</t>
   </si>
@@ -62,6 +62,66 @@
   </si>
   <si>
     <t>0.61%</t>
+  </si>
+  <si>
+    <t>as on 12th December, 2023)</t>
+  </si>
+  <si>
+    <t>18.1741</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
+  </si>
+  <si>
+    <t>25.1033</t>
+  </si>
+  <si>
+    <t>-0.47%</t>
+  </si>
+  <si>
+    <t>216.7221</t>
+  </si>
+  <si>
+    <t>-0.46%</t>
+  </si>
+  <si>
+    <t>14.6611</t>
+  </si>
+  <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>79.25</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>as on 13th December, 2023)</t>
+  </si>
+  <si>
+    <t>25.4592</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
+    <t>218.0173</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>14.755</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>79.67</t>
+  </si>
+  <si>
+    <t>0.53%</t>
   </si>
 </sst>
 </file>
@@ -103,7 +163,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,124 +475,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{EC743606-F577-4881-9952-E2B78796D779}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C1)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B378E9-A3FA-4C31-936A-821CF41B2F23}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{6BFA221C-BD73-4C54-9984-CBE2C01AF737}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C1)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F8222-E759-45FE-B32E-03DD22E5F56E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{01D80CD1-46D9-4190-9474-2678E9C108EA}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C1)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEF9AAE-5373-4E1E-B5AB-07E2BED9A40F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{046BBEAC-D401-428E-ADC6-EB76239F6FC7}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C1)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA7ADD8-7561-4F7E-A3EE-BE0F9AC4FD80}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{B6CE15E7-1977-4BE5-958E-65731AD592A7}">
+            <xm:f>NOT(ISERROR(SEARCH("-",C1)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ExcelData/Portfolio.xlsx
+++ b/ExcelData/Portfolio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\eclipse-workspace\TestProjet\ExcelData\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>as on 08th December, 2023)</t>
   </si>
@@ -122,12 +122,22 @@
   </si>
   <si>
     <t>0.53%</t>
+  </si>
+  <si>
+    <t>as on 21st December, 2023)</t>
+  </si>
+  <si>
+    <t>18.3242</t>
+  </si>
+  <si>
+    <t>1.06%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -483,29 +493,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -544,39 +565,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>4</v>
       </c>
     </row>
@@ -615,39 +636,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -686,39 +707,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
@@ -758,39 +779,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
